--- a/data/case1/5/Plm1_14.xlsx
+++ b/data/case1/5/Plm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.068556982683489309</v>
+        <v>-0.15874635842922658</v>
       </c>
       <c r="B1" s="0">
-        <v>0.068291564301588892</v>
+        <v>0.15806139970295874</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.02218180587421692</v>
+        <v>-0.051127580700061515</v>
       </c>
       <c r="B2" s="0">
-        <v>0.021110241575325261</v>
+        <v>0.04971141197657758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.081824579588293034</v>
+        <v>0.093770658815838459</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.082396875365361666</v>
+        <v>-0.094452276543258051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.2015951130434992</v>
+        <v>-0.18953586484436613</v>
       </c>
       <c r="B4" s="0">
-        <v>0.20023732788142823</v>
+        <v>0.1882296455530259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13444268654624292</v>
+        <v>-0.1822296464254638</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13310705369839848</v>
+        <v>0.17957392393540594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.019656453034450738</v>
+        <v>-0.078665239442041734</v>
       </c>
       <c r="B6" s="0">
-        <v>0.019638115197387229</v>
+        <v>0.078577339310698324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00036188432415862337</v>
+        <v>-0.058577340366854358</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.00044865899520374342</v>
+        <v>0.058397577209083451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.020448658516667884</v>
+        <v>-0.038397578273347222</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.020668410880532839</v>
+        <v>0.038289409933624619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.041558706819000868</v>
+        <v>-0.03228941086095638</v>
       </c>
       <c r="B9" s="0">
-        <v>0.041428533971048509</v>
+        <v>0.032212045571005099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.035428534371249043</v>
+        <v>-0.026212046505250441</v>
       </c>
       <c r="B10" s="0">
-        <v>0.035414487499032532</v>
+        <v>0.026211197665574559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.030914487890782993</v>
+        <v>-0.02171119858512327</v>
       </c>
       <c r="B11" s="0">
-        <v>0.030891271160555789</v>
+        <v>0.021702339526658676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.024891271561882089</v>
+        <v>-0.015702340462431685</v>
       </c>
       <c r="B12" s="0">
-        <v>0.024828717049574678</v>
+        <v>0.015677969918904466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.018828717454344002</v>
+        <v>-0.009677970859348406</v>
       </c>
       <c r="B13" s="0">
-        <v>0.018816240109780225</v>
+        <v>0.0096745772560824506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0068162405499831991</v>
+        <v>0.0023254217403625432</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0068138275816744809</v>
+        <v>-0.0023300782724282598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050917780180534</v>
+        <v>0.0083300773312133813</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026605862440206</v>
+        <v>-0.0083408555889779024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026606269868736</v>
+        <v>-0.015026978608466024</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004244972788516</v>
+        <v>0.015003946833059612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090042453820107227</v>
+        <v>-0.009003947777176613</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995730449811</v>
+        <v>0.008999999023942884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109758830743743</v>
+        <v>-0.059632230398481312</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096643153221919</v>
+        <v>0.059581055182412967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096643551185906</v>
+        <v>-0.027096231407010674</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013676975847112</v>
+        <v>0.027013079939922857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013677377465953</v>
+        <v>-0.018013080838539253</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004289400378681</v>
+        <v>0.018004206377439047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042898025517459</v>
+        <v>-0.0090042072770861736</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995973952807</v>
+        <v>0.008999999099604139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093934821562747572</v>
+        <v>-0.093937084652933933</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093626048336846068</v>
+        <v>0.093628041692385366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084626048739664839</v>
+        <v>-0.084628042595770836</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125128782999603</v>
+        <v>0.084125327326252552</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125129382573512</v>
+        <v>-0.042125328586860356</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999397117627</v>
+        <v>0.041999998732640265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.10745060106143356</v>
+        <v>-0.094908685401208004</v>
       </c>
       <c r="B25" s="0">
-        <v>0.1071207805283052</v>
+        <v>0.094667762933386967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.10112078092781829</v>
+        <v>-0.088667763843627512</v>
       </c>
       <c r="B26" s="0">
-        <v>0.10069006175699968</v>
+        <v>0.088356213009426199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.094690062158961918</v>
+        <v>-0.082356213924460242</v>
       </c>
       <c r="B27" s="0">
-        <v>0.093195833427080821</v>
+        <v>0.081281866556329962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075274804905542503</v>
+        <v>-0.075281867492562604</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074536028338807903</v>
+        <v>0.0745377324068075</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062536028792278486</v>
+        <v>-0.062537733418958297</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062169840986987523</v>
+        <v>0.062169838871502847</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042169841489662296</v>
+        <v>-0.042169839973326351</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019686784526389</v>
+        <v>0.042018727160978209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019687262846759</v>
+        <v>-0.02701872822042084</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000704747013771</v>
+        <v>0.027000469855567033</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.006000705260686523</v>
+        <v>-0.0060004709785124177</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995725190658</v>
+        <v>0.0059999990322632257</v>
       </c>
     </row>
   </sheetData>
